--- a/workorders.xlsx
+++ b/workorders.xlsx
@@ -491,16 +491,56 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2356</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>7/30/25</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>oval</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>gaylord</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>8/5/25</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
     </row>
   </sheetData>

--- a/workorders.xlsx
+++ b/workorders.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,57 +491,98 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>2356</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>7/30/25</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>oval</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>204</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>50</v>
+      </c>
+      <c r="H2" t="n">
+        <v>25</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>gaylord</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>8/5/25</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>2356</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>7/30/25</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>oval</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>gaylord</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>8/5/25</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/workorders.xlsx
+++ b/workorders.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,57 +532,98 @@
       <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>2356</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>7/30/25</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>oval</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>204</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9</v>
+      </c>
+      <c r="F3" t="n">
+        <v>100</v>
+      </c>
+      <c r="G3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H3" t="n">
+        <v>25</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>gaylord</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>8/5/25</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>2356</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>7/30/25</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>oval</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>gaylord</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>8/5/25</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/workorders.xlsx
+++ b/workorders.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,57 +573,98 @@
       <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>2356</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>7/30/25</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>oval</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>204</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>100</v>
+      </c>
+      <c r="G4" t="n">
+        <v>50</v>
+      </c>
+      <c r="H4" t="n">
+        <v>25</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>gaylord</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>8/5/25</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>2356</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>7/30/25</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>oval</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>gaylord</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>8/5/25</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/workorders.xlsx
+++ b/workorders.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -614,57 +614,98 @@
       <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>2356</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>7/30/25</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>oval</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>204</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" t="n">
+        <v>50</v>
+      </c>
+      <c r="H5" t="n">
+        <v>25</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>gaylord</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>8/5/25</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>2356</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>7/30/25</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>oval</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>gaylord</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>8/5/25</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/workorders.xlsx
+++ b/workorders.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -655,57 +655,98 @@
       <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>2356</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>7/30/25</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>oval</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>204</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>50</v>
+      </c>
+      <c r="H6" t="n">
+        <v>25</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>gaylord</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>8/5/25</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>2356</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>7/30/25</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>oval</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>gaylord</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>8/5/25</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/workorders.xlsx
+++ b/workorders.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,33 +491,45 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>2356</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7/30/25</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>oval</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>204</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9</v>
-      </c>
-      <c r="F2" t="n">
-        <v>100</v>
-      </c>
-      <c r="G2" t="n">
-        <v>50</v>
-      </c>
-      <c r="H2" t="n">
-        <v>25</v>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>5555</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -526,227 +538,10 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>8/5/25</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2356</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>7/30/25</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>oval</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>204</v>
-      </c>
-      <c r="E3" t="n">
-        <v>9</v>
-      </c>
-      <c r="F3" t="n">
-        <v>100</v>
-      </c>
-      <c r="G3" t="n">
-        <v>50</v>
-      </c>
-      <c r="H3" t="n">
-        <v>25</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>gaylord</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>8/5/25</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2356</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>7/30/25</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>oval</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>204</v>
-      </c>
-      <c r="E4" t="n">
-        <v>9</v>
-      </c>
-      <c r="F4" t="n">
-        <v>100</v>
-      </c>
-      <c r="G4" t="n">
-        <v>50</v>
-      </c>
-      <c r="H4" t="n">
-        <v>25</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>gaylord</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>8/5/25</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2356</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>7/30/25</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>oval</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>204</v>
-      </c>
-      <c r="E5" t="n">
-        <v>9</v>
-      </c>
-      <c r="F5" t="n">
-        <v>100</v>
-      </c>
-      <c r="G5" t="n">
-        <v>50</v>
-      </c>
-      <c r="H5" t="n">
-        <v>25</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>gaylord</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>8/5/25</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2356</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>7/30/25</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>oval</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>204</v>
-      </c>
-      <c r="E6" t="n">
-        <v>9</v>
-      </c>
-      <c r="F6" t="n">
-        <v>100</v>
-      </c>
-      <c r="G6" t="n">
-        <v>50</v>
-      </c>
-      <c r="H6" t="n">
-        <v>25</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>gaylord</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>8/5/25</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2356</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>7/30/25</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>oval</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>gaylord</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>8/5/25</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/workorders.xlsx
+++ b/workorders.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,57 +491,92 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>36</v>
+      </c>
+      <c r="D2" t="n">
+        <v>45</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9</v>
+      </c>
+      <c r="F2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G2" t="n">
+        <v>555</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5555</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>gaylord</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>1234</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>7/30/25</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>oval</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>555</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>5555</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>gaylord</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>1234</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>8/5/25</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/workorders.xlsx
+++ b/workorders.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,10 +526,8 @@
       <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>12345</t>
-        </is>
+      <c r="A3" t="n">
+        <v>12345</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -541,42 +539,85 @@
           <t>oval</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="D3" t="n">
+        <v>204</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9</v>
+      </c>
+      <c r="F3" t="n">
+        <v>100</v>
+      </c>
+      <c r="G3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H3" t="n">
+        <v>25</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>gaylord</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>8/5/25</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>98765</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>7/30/25</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>oval</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>gaylord</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>8/5/25</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
